--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_11-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_11-55.xlsx
@@ -41,12 +41,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -59,12 +74,12 @@
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
     <t>GABAVERONA 300MG CAPS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
@@ -83,12 +98,12 @@
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
+    <t>NOVOCOBAL 1 MG 30 SUBLINGUAL TABS.</t>
+  </si>
+  <si>
     <t>OPLEX N PLUS 10 SUPP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -108,9 +123,6 @@
   </si>
   <si>
     <t>URIPAN 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
@@ -756,17 +768,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -782,17 +794,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -808,17 +820,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -826,7 +838,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -834,13 +846,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -852,7 +864,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -860,17 +872,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -878,7 +890,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -886,13 +898,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -904,7 +916,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -918,11 +930,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -930,7 +942,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -938,17 +950,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -964,17 +976,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -982,7 +994,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -990,13 +1002,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1022,7 +1034,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1042,17 +1054,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1060,7 +1072,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1074,7 +1086,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>149.5</v>
+        <v>67</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1086,7 +1098,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1094,17 +1106,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1112,7 +1124,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1120,17 +1132,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1138,7 +1150,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1146,13 +1158,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1172,13 +1184,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>26</v>
+        <v>149.5</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1198,17 +1210,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1224,13 +1236,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>66.640000000000001</v>
+        <v>18</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1250,17 +1262,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1276,13 +1288,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1302,13 +1314,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1320,7 +1332,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1328,51 +1340,155 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>50</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
-      <c r="K28" s="10">
-        <v>1299.1400000000001</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c t="s" r="A29" s="11">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c t="s" r="B28" s="7">
+        <v>42</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c t="s" r="H28" s="8">
+        <v>32</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9">
+        <v>14</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c t="s" r="N28" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c t="s" r="B29" s="7">
         <v>43</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c t="s" r="F29" s="12">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c t="s" r="H29" s="8">
+        <v>32</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9">
+        <v>40</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c t="s" r="N29" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c t="s" r="B30" s="7">
         <v>44</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c t="s" r="I29" s="14">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c t="s" r="H30" s="8">
         <v>45</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9">
+        <v>2</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c t="s" r="N30" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c t="s" r="B31" s="7">
+        <v>46</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c t="s" r="H31" s="8">
+        <v>13</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9">
+        <v>50</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c t="s" r="N31" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="26.25" customHeight="1">
+      <c r="K32" s="10">
+        <v>1459.1400000000001</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="11">
+        <v>47</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c t="s" r="F33" s="12">
+        <v>48</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c t="s" r="I33" s="14">
+        <v>49</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="95">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1452,10 +1568,22 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:N33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
